--- a/本体/基于集合扰动滤波的极化合成孔径雷达目标检测方法知识抽取.xlsx
+++ b/本体/基于集合扰动滤波的极化合成孔径雷达目标检测方法知识抽取.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TIAN/实验室/雷达抽取/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12645" tabRatio="766" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="21840" windowHeight="12640" tabRatio="766" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="步骤1-A概念提取（按章节）" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,12 @@
     <sheet name="步骤3-A类和属性的提取（书内）" sheetId="4" r:id="rId4"/>
     <sheet name="步骤3-B层次关系细分 " sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="175">
   <si>
     <t>合成孔径雷达</t>
   </si>
@@ -665,13 +673,50 @@
   </si>
   <si>
     <t>雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'wen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <rPh sb="0" eb="1">
+      <t>ying'wen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文简称</t>
+    <rPh sb="0" eb="1">
+      <t>ying'wen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="1">
+      <t>ming'cheng</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,17 +1086,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1660,16 +1705,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F5:F6"/>
+      <selection activeCell="B4" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1721,15 +1766,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2381,17 +2426,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C21" sqref="C21:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2427,142 +2472,142 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" t="s">
-        <v>140</v>
+      <c r="C5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" t="s">
-        <v>138</v>
+      <c r="C6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" t="s">
-        <v>125</v>
+      <c r="C7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>142</v>
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s">
-        <v>145</v>
+      <c r="A18" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
@@ -2587,6 +2632,48 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2600,15 +2687,15 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2657,6 +2744,21 @@
       </c>
       <c r="D12" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
